--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan2k\Desktop\job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B572FB2-33E0-44FD-A411-2C563B45A25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2594FE-BA16-4A52-AE03-2FF3B9FC9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1D58823-75EE-4683-B8B8-D7CEE68BBD40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>L10</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L101166" sqref="L101166"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -489,7 +497,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>1111111111111</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -503,7 +511,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>2222222222222</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -517,7 +525,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>3333333333333</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -531,7 +539,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>4444444444444</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -545,7 +553,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>5555555555555</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -559,7 +567,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>6666666666666</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -573,7 +581,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>7777777777777</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -587,7 +595,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>8888888888888</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -601,7 +609,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>9999999999999</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -614,8 +622,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
